--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3b-Nrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.222587333333333</v>
+        <v>3.83668</v>
       </c>
       <c r="H2">
-        <v>6.667762</v>
+        <v>11.51004</v>
       </c>
       <c r="I2">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="J2">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N2">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O2">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P2">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q2">
-        <v>195.4571735233951</v>
+        <v>513.2633872711467</v>
       </c>
       <c r="R2">
-        <v>1759.114561710556</v>
+        <v>4619.37048544032</v>
       </c>
       <c r="S2">
-        <v>0.04660462485702831</v>
+        <v>0.08702604188891824</v>
       </c>
       <c r="T2">
-        <v>0.04660462485702831</v>
+        <v>0.08702604188891822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.222587333333333</v>
+        <v>3.83668</v>
       </c>
       <c r="H3">
-        <v>6.667762</v>
+        <v>11.51004</v>
       </c>
       <c r="I3">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="J3">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>157.325913</v>
       </c>
       <c r="O3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P3">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q3">
-        <v>116.556860479634</v>
+        <v>201.20306129628</v>
       </c>
       <c r="R3">
-        <v>1049.011744316706</v>
+        <v>1810.82755166652</v>
       </c>
       <c r="S3">
-        <v>0.02779170832794296</v>
+        <v>0.03411485501360828</v>
       </c>
       <c r="T3">
-        <v>0.02779170832794295</v>
+        <v>0.03411485501360827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.222587333333333</v>
+        <v>3.83668</v>
       </c>
       <c r="H4">
-        <v>6.667762</v>
+        <v>11.51004</v>
       </c>
       <c r="I4">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="J4">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N4">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O4">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P4">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q4">
-        <v>42.12505704695223</v>
+        <v>81.32875710588</v>
       </c>
       <c r="R4">
-        <v>379.12551342257</v>
+        <v>731.9588139529201</v>
       </c>
       <c r="S4">
-        <v>0.01004425903313873</v>
+        <v>0.01378964484550493</v>
       </c>
       <c r="T4">
-        <v>0.01004425903313873</v>
+        <v>0.01378964484550493</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.222587333333333</v>
+        <v>3.83668</v>
       </c>
       <c r="H5">
-        <v>6.667762</v>
+        <v>11.51004</v>
       </c>
       <c r="I5">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="J5">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N5">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P5">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q5">
-        <v>121.5032019189193</v>
+        <v>213.3037594611733</v>
       </c>
       <c r="R5">
-        <v>1093.528817270274</v>
+        <v>1919.73383515056</v>
       </c>
       <c r="S5">
-        <v>0.02897110933450195</v>
+        <v>0.03616658106985792</v>
       </c>
       <c r="T5">
-        <v>0.02897110933450194</v>
+        <v>0.03616658106985791</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>35.682742</v>
       </c>
       <c r="I6">
-        <v>0.6069263549423107</v>
+        <v>0.5304251323586242</v>
       </c>
       <c r="J6">
-        <v>0.6069263549423106</v>
+        <v>0.5304251323586241</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N6">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O6">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P6">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q6">
-        <v>1045.995327200422</v>
+        <v>1591.18865147666</v>
       </c>
       <c r="R6">
-        <v>9413.957944803797</v>
+        <v>14320.69786328994</v>
       </c>
       <c r="S6">
-        <v>0.2494061432876771</v>
+        <v>0.2697929633609842</v>
       </c>
       <c r="T6">
-        <v>0.249406143287677</v>
+        <v>0.269792963360984</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>35.682742</v>
       </c>
       <c r="I7">
-        <v>0.6069263549423107</v>
+        <v>0.5304251323586242</v>
       </c>
       <c r="J7">
-        <v>0.6069263549423106</v>
+        <v>0.5304251323586241</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>157.325913</v>
       </c>
       <c r="O7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P7">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q7">
-        <v>623.7577737214939</v>
+        <v>623.757773721494</v>
       </c>
       <c r="R7">
-        <v>5613.819963493445</v>
+        <v>5613.819963493446</v>
       </c>
       <c r="S7">
-        <v>0.1487282176546253</v>
+        <v>0.1057608461671715</v>
       </c>
       <c r="T7">
-        <v>0.1487282176546253</v>
+        <v>0.1057608461671715</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>35.682742</v>
       </c>
       <c r="I8">
-        <v>0.6069263549423107</v>
+        <v>0.5304251323586242</v>
       </c>
       <c r="J8">
-        <v>0.6069263549423106</v>
+        <v>0.5304251323586241</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N8">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O8">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P8">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q8">
-        <v>225.4335926119856</v>
+        <v>252.130579649574</v>
       </c>
       <c r="R8">
-        <v>2028.90233350787</v>
+        <v>2269.175216846166</v>
       </c>
       <c r="S8">
-        <v>0.05375217406689962</v>
+        <v>0.04274983747178832</v>
       </c>
       <c r="T8">
-        <v>0.05375217406689961</v>
+        <v>0.04274983747178829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>35.682742</v>
       </c>
       <c r="I9">
-        <v>0.6069263549423107</v>
+        <v>0.5304251323586242</v>
       </c>
       <c r="J9">
-        <v>0.6069263549423106</v>
+        <v>0.5304251323586241</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N9">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P9">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q9">
-        <v>650.2282784308593</v>
+        <v>661.2716390632097</v>
       </c>
       <c r="R9">
-        <v>5852.054505877733</v>
+        <v>5951.444751568887</v>
       </c>
       <c r="S9">
-        <v>0.1550398199331087</v>
+        <v>0.1121214853586803</v>
       </c>
       <c r="T9">
-        <v>0.1550398199331087</v>
+        <v>0.1121214853586802</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.718678666666666</v>
+        <v>5.772967666666666</v>
       </c>
       <c r="H10">
-        <v>14.156036</v>
+        <v>17.318903</v>
       </c>
       <c r="I10">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911056</v>
       </c>
       <c r="J10">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911055</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N10">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O10">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P10">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q10">
-        <v>414.9666387095742</v>
+        <v>772.2960839059137</v>
       </c>
       <c r="R10">
-        <v>3734.699748386168</v>
+        <v>6950.664755153224</v>
       </c>
       <c r="S10">
-        <v>0.09894425554520209</v>
+        <v>0.1309461633450545</v>
       </c>
       <c r="T10">
-        <v>0.09894425554520209</v>
+        <v>0.1309461633450545</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.718678666666666</v>
+        <v>5.772967666666666</v>
       </c>
       <c r="H11">
-        <v>14.156036</v>
+        <v>17.318903</v>
       </c>
       <c r="I11">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911056</v>
       </c>
       <c r="J11">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911055</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>157.325913</v>
       </c>
       <c r="O11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P11">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q11">
-        <v>247.456809795652</v>
+        <v>302.745802959271</v>
       </c>
       <c r="R11">
-        <v>2227.111288160868</v>
+        <v>2724.712226633439</v>
       </c>
       <c r="S11">
-        <v>0.05900336928520548</v>
+        <v>0.05133186894569832</v>
       </c>
       <c r="T11">
-        <v>0.05900336928520548</v>
+        <v>0.0513318689456983</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.718678666666666</v>
+        <v>5.772967666666666</v>
       </c>
       <c r="H12">
-        <v>14.156036</v>
+        <v>17.318903</v>
       </c>
       <c r="I12">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911056</v>
       </c>
       <c r="J12">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911055</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N12">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O12">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P12">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q12">
-        <v>89.43387962238445</v>
+        <v>122.373584750991</v>
       </c>
       <c r="R12">
-        <v>804.9049166014601</v>
+        <v>1101.362262758919</v>
       </c>
       <c r="S12">
-        <v>0.02132453024964554</v>
+        <v>0.02074897406818308</v>
       </c>
       <c r="T12">
-        <v>0.02132453024964554</v>
+        <v>0.02074897406818307</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.718678666666666</v>
+        <v>5.772967666666666</v>
       </c>
       <c r="H13">
-        <v>14.156036</v>
+        <v>17.318903</v>
       </c>
       <c r="I13">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911056</v>
       </c>
       <c r="J13">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911055</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N13">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P13">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q13">
-        <v>257.9581725441747</v>
+        <v>320.9534562558769</v>
       </c>
       <c r="R13">
-        <v>2321.623552897572</v>
+        <v>2888.581106302891</v>
       </c>
       <c r="S13">
-        <v>0.06150730435476635</v>
+        <v>0.05441905583216962</v>
       </c>
       <c r="T13">
-        <v>0.06150730435476635</v>
+        <v>0.0544190558321696</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.762</v>
+        <v>0.9200940000000001</v>
       </c>
       <c r="H14">
-        <v>2.286</v>
+        <v>2.760282</v>
       </c>
       <c r="I14">
-        <v>0.0388824840702579</v>
+        <v>0.04103168263238089</v>
       </c>
       <c r="J14">
-        <v>0.03888248407025789</v>
+        <v>0.04103168263238088</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>87.94127933333334</v>
+        <v>133.7780026666667</v>
       </c>
       <c r="N14">
-        <v>263.823838</v>
+        <v>401.334008</v>
       </c>
       <c r="O14">
-        <v>0.4109331243514438</v>
+        <v>0.50863533211804</v>
       </c>
       <c r="P14">
-        <v>0.4109331243514438</v>
+        <v>0.5086353321180399</v>
       </c>
       <c r="Q14">
-        <v>67.01125485200001</v>
+        <v>123.088337585584</v>
       </c>
       <c r="R14">
-        <v>603.101293668</v>
+        <v>1107.795038270256</v>
       </c>
       <c r="S14">
-        <v>0.01597810066153632</v>
+        <v>0.02087016352308307</v>
       </c>
       <c r="T14">
-        <v>0.01597810066153632</v>
+        <v>0.02087016352308306</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.762</v>
+        <v>0.9200940000000001</v>
       </c>
       <c r="H15">
-        <v>2.286</v>
+        <v>2.760282</v>
       </c>
       <c r="I15">
-        <v>0.0388824840702579</v>
+        <v>0.04103168263238089</v>
       </c>
       <c r="J15">
-        <v>0.03888248407025789</v>
+        <v>0.04103168263238088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>157.325913</v>
       </c>
       <c r="O15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="P15">
-        <v>0.2450515065683087</v>
+        <v>0.1993888292903622</v>
       </c>
       <c r="Q15">
-        <v>39.96078190199999</v>
+        <v>48.251542865274</v>
       </c>
       <c r="R15">
-        <v>359.647037118</v>
+        <v>434.2638857874661</v>
       </c>
       <c r="S15">
-        <v>0.009528211300534963</v>
+        <v>0.008181259163884114</v>
       </c>
       <c r="T15">
-        <v>0.009528211300534961</v>
+        <v>0.008181259163884111</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.762</v>
+        <v>0.9200940000000001</v>
       </c>
       <c r="H16">
-        <v>2.286</v>
+        <v>2.760282</v>
       </c>
       <c r="I16">
-        <v>0.0388824840702579</v>
+        <v>0.04103168263238089</v>
       </c>
       <c r="J16">
-        <v>0.03888248407025789</v>
+        <v>0.04103168263238088</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.95316166666667</v>
+        <v>21.197691</v>
       </c>
       <c r="N16">
-        <v>56.85948500000001</v>
+        <v>63.593073</v>
       </c>
       <c r="O16">
-        <v>0.08856457398691947</v>
+        <v>0.08059542216956049</v>
       </c>
       <c r="P16">
-        <v>0.08856457398691946</v>
+        <v>0.08059542216956046</v>
       </c>
       <c r="Q16">
-        <v>14.44230919</v>
+        <v>19.503868302954</v>
       </c>
       <c r="R16">
-        <v>129.98078271</v>
+        <v>175.534814726586</v>
       </c>
       <c r="S16">
-        <v>0.003443610637235573</v>
+        <v>0.003306965784084161</v>
       </c>
       <c r="T16">
-        <v>0.003443610637235572</v>
+        <v>0.003306965784084159</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.762</v>
+        <v>0.9200940000000001</v>
       </c>
       <c r="H17">
-        <v>2.286</v>
+        <v>2.760282</v>
       </c>
       <c r="I17">
-        <v>0.0388824840702579</v>
+        <v>0.04103168263238089</v>
       </c>
       <c r="J17">
-        <v>0.03888248407025789</v>
+        <v>0.04103168263238088</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>54.667459</v>
+        <v>55.59592133333333</v>
       </c>
       <c r="N17">
-        <v>164.002377</v>
+        <v>166.787764</v>
       </c>
       <c r="O17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220374</v>
       </c>
       <c r="P17">
-        <v>0.255450795093328</v>
+        <v>0.2113804164220373</v>
       </c>
       <c r="Q17">
-        <v>41.656603758</v>
+        <v>51.153473643272</v>
       </c>
       <c r="R17">
-        <v>374.909433822</v>
+        <v>460.381262789448</v>
       </c>
       <c r="S17">
-        <v>0.009932561470951042</v>
+        <v>0.00867329416132955</v>
       </c>
       <c r="T17">
-        <v>0.00993256147095104</v>
+        <v>0.008673294161329547</v>
       </c>
     </row>
   </sheetData>
